--- a/doc/computers.xlsx
+++ b/doc/computers.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenix/Desktop/WORKSPACES/WDK.git/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBA2E9F-0582-A04E-AC75-1958574B0682}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60296F5B-201D-3246-8909-D91A7091C34B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="5340" windowWidth="31060" windowHeight="20700" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
+    <workbookView xWindow="30800" yWindow="5700" windowWidth="31060" windowHeight="20700" activeTab="2" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessing" sheetId="1" r:id="rId1"/>
+    <sheet name="eventDetection" sheetId="2" r:id="rId2"/>
+    <sheet name="segmentation" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>HighPassFilter</t>
   </si>
@@ -42,12 +44,6 @@
     <t>Flops</t>
   </si>
   <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>Communication</t>
-  </si>
-  <si>
     <t>LowPassFilter</t>
   </si>
   <si>
@@ -66,15 +62,9 @@
     <t>S1</t>
   </si>
   <si>
-    <t>![S1](https://latex.codecogs.com/gif.latex?S_1%28k%2Ci%2CX_i%2CT%29%20%3D%20%5Cfrac%7Bmax%28x&amp;plus;i%20-%20x_%7Bi-1%7D%2C%20x_i%20-%20x_%7Bi-2%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%20&amp;plus;%20max%28x_i-x_%7Bi&amp;plus;1%7D%2Cx_i-x_%7Bi&amp;plus;2%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7B2%7D)</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
-    <t>![S2](https://latex.codecogs.com/gif.latex?S_2%28k%2Ci%2CX_i%2CT%29%20%3D%20%5Cfrac%7B%5Cfrac%7Bmax%28x&amp;plus;i%20-%20x_%7Bi-1%7D%2C%20x_i%20-%20x_%7Bi-2%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%7D%7Bk%7D%20&amp;plus;%20%5Cfrac%7Bmax%28x_i-x_%7Bi&amp;plus;1%7D%2Cx_i-x_%7Bi&amp;plus;2%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7Bk%7D%7D%7B2%7D)</t>
-  </si>
-  <si>
     <t>Magnitude</t>
   </si>
   <si>
@@ -87,17 +77,65 @@
     <t>order * n</t>
   </si>
   <si>
+    <t>4 * n</t>
+  </si>
+  <si>
     <t>5 * n</t>
   </si>
   <si>
     <t>n * k</t>
+  </si>
+  <si>
+    <t>Mem</t>
+  </si>
+  <si>
+    <t>Comm</t>
+  </si>
+  <si>
+    <t>![S1](https://latex.codecogs.com/gif.latex?S_1%28k%2Ci%2CX_i%2CT%29%20%3D%20%5Cfrac%7Bmax%28x_i%20-%20x_%7Bi-1%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%20&amp;plus;%20max%28x_i-x_%7Bi&amp;plus;1%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7B2%7D)</t>
+  </si>
+  <si>
+    <t>![S2](https://latex.codecogs.com/gif.latex?S_2%28k%2Ci%2CX_i%2CT%29%20%3D%20%5Cfrac%7B%5Cfrac%7Bmax%28x_i%20-%20x_%7Bi-1%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%7D%7Bk%7D%20&amp;plus;%20%5Cfrac%7Bmax%28x_i-x_%7Bi&amp;plus;1%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7Bk%7D%7D%7B2%7D)</t>
+  </si>
+  <si>
+    <t>SimplePeakDetector</t>
+  </si>
+  <si>
+    <t>MatlabPeakDetector</t>
+  </si>
+  <si>
+    <t>10 * n</t>
+  </si>
+  <si>
+    <t>Threshold-based peak detector. Properties are: minPeakheight and minPeakDistance. *Note: this algorithm is more suitable for deployment into an embedded device than Matlab's peak detector*</t>
+  </si>
+  <si>
+    <t>Matlab's peak detector. Properties are: minPeakheight and minPeakDistance.</t>
+  </si>
+  <si>
+    <t>EventSegmentation</t>
+  </si>
+  <si>
+    <t>OverlappingWindow</t>
+  </si>
+  <si>
+    <t>*segmentSize*</t>
+  </si>
+  <si>
+    <t>*segmentSizeLeft* + *segmentSizeRight*</t>
+  </si>
+  <si>
+    <t>Creates a segment of size *segmentSize* after every *sampleInterval* samples. E.g. *segmentSize* = 200 and *sampleInterval* = 100 creates segments with a 50% overlapping. *Note: receives a signal as input.*</t>
+  </si>
+  <si>
+    <t>Creates a segment around an event by taking *segmentSizeLeft* samples to the left and *segmentSizeRight* to the right of the event. *Note: receives an event as input.*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +147,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,10 +177,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -142,8 +189,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99790EE8-D33A-9F4A-A9A3-8D9D28F19278}">
   <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,6 +527,164 @@
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="119" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" display="https://latex.codecogs.com/gif.latex?S_1%28k%2Ci%2CX_i%2CT%29%20%3D%20%5Cfrac%7Bmax%28x_i%20-%20x_%7Bi-1%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%20&amp;plus;%20max%28x_i-x_%7Bi&amp;plus;1%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7B2%7D" xr:uid="{131BD98A-DBB0-2E46-AF42-3A8BE2E14C8A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3262CBCF-E085-BF48-9352-9B4D819BCA3C}">
+  <dimension ref="B1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="2:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -483,129 +696,113 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="153" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10BBCD1-E415-E145-B533-EFE59CA1F207}">
+  <dimension ref="B2:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="41.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="136" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/doc/computers.xlsx
+++ b/doc/computers.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenix/Desktop/WORKSPACES/WDK.git/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60296F5B-201D-3246-8909-D91A7091C34B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AD3609-FB25-1043-865E-B26E86B808D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30800" yWindow="5700" windowWidth="31060" windowHeight="20700" activeTab="2" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
+    <workbookView xWindow="24700" yWindow="460" windowWidth="44100" windowHeight="27180" activeTab="3" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessing" sheetId="1" r:id="rId1"/>
     <sheet name="eventDetection" sheetId="2" r:id="rId2"/>
     <sheet name="segmentation" sheetId="3" r:id="rId3"/>
+    <sheet name="computers" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
   <si>
     <t>HighPassFilter</t>
   </si>
@@ -38,9 +39,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Desscription</t>
-  </si>
-  <si>
     <t>Flops</t>
   </si>
   <si>
@@ -74,9 +72,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>order * n</t>
-  </si>
-  <si>
     <t>4 * n</t>
   </si>
   <si>
@@ -107,12 +102,6 @@
     <t>10 * n</t>
   </si>
   <si>
-    <t>Threshold-based peak detector. Properties are: minPeakheight and minPeakDistance. *Note: this algorithm is more suitable for deployment into an embedded device than Matlab's peak detector*</t>
-  </si>
-  <si>
-    <t>Matlab's peak detector. Properties are: minPeakheight and minPeakDistance.</t>
-  </si>
-  <si>
     <t>EventSegmentation</t>
   </si>
   <si>
@@ -129,6 +118,234 @@
   </si>
   <si>
     <t>Creates a segment around an event by taking *segmentSizeLeft* samples to the left and *segmentSizeRight* to the right of the event. *Note: receives an event as input.*</t>
+  </si>
+  <si>
+    <t>AAV</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>6 * n</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>n * log(n)</t>
+  </si>
+  <si>
+    <t>n * n</t>
+  </si>
+  <si>
+    <t>Computes the DC component of the FFT of the input signal</t>
+  </si>
+  <si>
+    <t>FFTDC</t>
+  </si>
+  <si>
+    <t>IQR</t>
+  </si>
+  <si>
+    <t>Computes the difference between Q3 and Q1 where Q1 is the median of the n/2 smallest values and Q3 is the median of the n/2 largest values in an input signal of size n.</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>7 * n</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>2 * n</t>
+  </si>
+  <si>
+    <t>MaxCrossCorr</t>
+  </si>
+  <si>
+    <t>MaxFrequency</t>
+  </si>
+  <si>
+    <t>Computes the maximum value in the fourier transform of the input signal</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>3 * n</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Octants</t>
+  </si>
+  <si>
+    <t>P2P</t>
+  </si>
+  <si>
+    <t>PowerSpectrum</t>
+  </si>
+  <si>
+    <t>Quantile</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
+  <si>
+    <t>8 * n</t>
+  </si>
+  <si>
+    <t>SignalVectorMagnitude</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>![SignalVectorMagnitude](https://latex.codecogs.com/gif.latex?%5Cfrac%7B%5Csum_%7Bi%3D1%7D%5En%20%5Csqrt%7Bx_i%5E2%20&amp;plus;%20y_i%5E2%29%7D%7D%7Bn%7D)</t>
+  </si>
+  <si>
+    <t>Describes the "tailedness" of the distribution of values in the input signal. ![Kurtosis](https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5E%7Bn%7D%20%5Cleft%20%28%20%5Cfrac%7Bx_i%20-%20%5Cbar%7Bx%7D%29%7D%7B%5Csigma%7D%5Cright%29%5E4)</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>3 * n * n</t>
+  </si>
+  <si>
+    <t>SpectralCentroid</t>
+  </si>
+  <si>
+    <t>10 * n * log(n)</t>
+  </si>
+  <si>
+    <t>8 * n * log(n)</t>
+  </si>
+  <si>
+    <t>SpectralEnergy</t>
+  </si>
+  <si>
+    <t>15 * n * log(n)</t>
+  </si>
+  <si>
+    <t>SpectralEntropy</t>
+  </si>
+  <si>
+    <t>SpectralFlatness</t>
+  </si>
+  <si>
+    <t>SpectralSpread</t>
+  </si>
+  <si>
+    <t>SquaredMagnitudeSum</t>
+  </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>ZCR</t>
+  </si>
+  <si>
+    <t>*numQuantileParts*</t>
+  </si>
+  <si>
+    <t>Root Mean Squared. ![AUC](https://latex.codecogs.com/gif.latex?%5Csqrt%7B%5Cfrac%7B%5Csum_%7Bi%3D1%7D%5En%20x_i%5E2%7D%7Bn%7D%7D)</t>
+  </si>
+  <si>
+    <t>A measure of the asymmetry in the distribution of values in the input signal calculated as: ![Skewness](https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5E%7Bn%7D%20%5Cleft%20%28%20%5Cfrac%7Bx_i%20-%20%5Cbar%7Bx%7D%29%7D%7B%5Csigma%7D%5Cright%29%5E3)</t>
+  </si>
+  <si>
+    <t>Mean Absolute Deviation. The average distance of each data point to the mean. ![MAD](https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5E%7Bn%7D%20%5Cfrac%7B%5Cleft%20%7Cx_i%20-%20%5Cbar%7Bx%7D%20%5Cright%20%7C%20%7D%7Bn%7D)</t>
+  </si>
+  <si>
+    <t>Zero Crossing Rate. Amount of times the signal crosses the zero line.</t>
+  </si>
+  <si>
+    <t>Variance of the input signal.</t>
+  </si>
+  <si>
+    <t>Standard Deviation of the input signal.</t>
+  </si>
+  <si>
+    <t>Sum of squared values of input signal.</t>
+  </si>
+  <si>
+    <t>Sum of absolute values on each input signal.</t>
+  </si>
+  <si>
+    <t>Computes *numQuantileParts* cutpoints that separate the distribution of samples in in the input signal.</t>
+  </si>
+  <si>
+    <t>Peak to Peak distance (distance between maximum and minimum values).</t>
+  </si>
+  <si>
+    <t>Determines the octant of each sample in an input array of n samples with 3 columns each (e.g. if all three columns are positive, octant = 1. If all 3 columns are negative, octant = 7).</t>
+  </si>
+  <si>
+    <t>Minimum value in the input signal.</t>
+  </si>
+  <si>
+    <t>Median of the input signal.</t>
+  </si>
+  <si>
+    <t>Average of every value in the input signal.</t>
+  </si>
+  <si>
+    <t>Maximum value of the cross correlation coefficients of two input signals. *Note: input should be a nx2 array*.</t>
+  </si>
+  <si>
+    <t>Maximum value in the signal.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>*order* * n</t>
+  </si>
+  <si>
+    <t>Matlab's peak detector. Properties are: *minPeakheight* and *minPeakDistance*.</t>
+  </si>
+  <si>
+    <t>Threshold-based peak detector. Properties are: *minPeakheight* and *minPeakDistance*. *Note: this algorithm is more suitable for deployment into an embedded device than the MatlabPeakDetector*</t>
+  </si>
+  <si>
+    <t>Average Absolute Variation: ![AAV](https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5E%7Bn-1%7D%20%5Cfrac%7B%5Cleft%20%7Cx_i%20-%20x_%7Bi-1%7D%20%5Cright%20%7C%20%7D%7Bn%7D)</t>
+  </si>
+  <si>
+    <t>Area under the curve computed with the trapezoid rule: ![AUC](https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5E%7Bn-1%7D%20%5Cfrac%7Bx_k%20&amp;plus;%20x_%7Bk&amp;plus;1%7D%7D%7Bn%7D)</t>
+  </si>
+  <si>
+    <t>Provides a way to quantify how noise-like a sound is. White noise has peaks in all frequencies making its spectrum look flat.</t>
+  </si>
+  <si>
+    <t>indicates the variance in the distribution of frequencies.</t>
+  </si>
+  <si>
+    <t>Distribution of power into frequency components. *Note: returns n/2 coefficients*</t>
+  </si>
+  <si>
+    <t>The energy of the frequency domain (sum of squared values of dft coefficients). ![SpectralEnergy](https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5E%7Bn%7D%20%5Cbar%7By_i%7D%5E2)</t>
+  </si>
+  <si>
+    <t>Indicates where the "center of mass" of the spectrum is located. ![SpectralCentroid](https://latex.codecogs.com/gif.latex?%5Cfrac%7B%5Csum_%7Bi%3D1%7D%5E%7Bn-1%7D%20%5Cbar%7By_i%7D%20y_%7Bi%7D%7D%7B%5Csum_%7Bi%3D1%7D%5E%7Bn-1%7D%20y_i%7D)</t>
+  </si>
+  <si>
+    <t>Indicates how chaotic / how much informatiomn there is in the frequency distribution. Calculated as: ![SpectralEntropy](https://latex.codecogs.com/gif.latex?-%5Csum_%7Bi%3D1%7D%5En%7By_i%5Clog_2%20%28y_i%29%7D) where y_i are the coefficients of the power spectrum of the input signal</t>
+  </si>
+  <si>
+    <t>Estimates the amount of information in the input signal. Rare events (i.e. sample values) carry more information (and have a higher entropy) than seldom events. ![AUC](https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5En%7Bp_i%5Clog%20%28p_i%29%7D) where pi are the probability distribution values of the input signal</t>
   </si>
 </sst>
 </file>
@@ -181,7 +398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -196,6 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,7 +732,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,16 +750,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="17" x14ac:dyDescent="0.2">
@@ -552,115 +770,115 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="85" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="102" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="119" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +894,7 @@
   <dimension ref="B1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,32 +903,32 @@
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" ht="153" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="170" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -721,16 +939,16 @@
     </row>
     <row r="3" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -745,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10BBCD1-E415-E145-B533-EFE59CA1F207}">
   <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -754,58 +972,608 @@
     <col min="3" max="3" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="85" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F235E4-D004-E74F-A20E-01C6D25F8A1F}">
+  <dimension ref="B2:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5E%7Bn-1%7D%20%5Cfrac%7B%5Cleft%20%7Cx_i%20-%20x_%7Bi-1%7D%20%5Cright%20%7C%20%7D%7Bn%7D" xr:uid="{95EFB4BF-D469-8E46-904E-E08A047D1555}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/doc/computers.xlsx
+++ b/doc/computers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenix/Desktop/WORKSPACES/WDK.git/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AD3609-FB25-1043-865E-B26E86B808D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0C079-0BC2-0248-892A-02A9FFEC74F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24700" yWindow="460" windowWidth="44100" windowHeight="27180" activeTab="3" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
+    <workbookView xWindow="23520" yWindow="560" windowWidth="44100" windowHeight="27180" activeTab="3" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessing" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
   <si>
     <t>HighPassFilter</t>
   </si>
@@ -327,12 +327,6 @@
     <t>Area under the curve computed with the trapezoid rule: ![AUC](https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5E%7Bn-1%7D%20%5Cfrac%7Bx_k%20&amp;plus;%20x_%7Bk&amp;plus;1%7D%7D%7Bn%7D)</t>
   </si>
   <si>
-    <t>Provides a way to quantify how noise-like a sound is. White noise has peaks in all frequencies making its spectrum look flat.</t>
-  </si>
-  <si>
-    <t>indicates the variance in the distribution of frequencies.</t>
-  </si>
-  <si>
     <t>Distribution of power into frequency components. *Note: returns n/2 coefficients*</t>
   </si>
   <si>
@@ -346,6 +340,15 @@
   </si>
   <si>
     <t>Estimates the amount of information in the input signal. Rare events (i.e. sample values) carry more information (and have a higher entropy) than seldom events. ![AUC](https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5En%7Bp_i%5Clog%20%28p_i%29%7D) where pi are the probability distribution values of the input signal</t>
+  </si>
+  <si>
+    <t>Provides a way to quantify how noise-like a sound is. White noise has peaks in all frequencies making its spectrum look flat. ![SpectralFlatness](https://latex.codecogs.com/gif.latex?%5Cfrac%7B%5Csqrt%5Bn%5D%7B%5Cprod_%7Bi%3D1%7D%5E%7Bn%7D%20x_i%7D%7D%7B%5Cfrac%7B1%7D%7Bn%7D%5Csum_%7Bi%3D1%7D%5En%20x%28n%29%7D)</t>
+  </si>
+  <si>
+    <t>Indicates the variance in the distribution of frequencies.</t>
+  </si>
+  <si>
+    <t>n/2</t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F235E4-D004-E74F-A20E-01C6D25F8A1F}">
   <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1147,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -1159,7 +1162,7 @@
         <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J5" t="s">
         <v>65</v>
@@ -1168,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -1191,7 +1194,7 @@
         <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
         <v>65</v>
@@ -1223,7 +1226,7 @@
         <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
         <v>65</v>
@@ -1255,7 +1258,7 @@
         <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
         <v>68</v>
@@ -1287,7 +1290,7 @@
         <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
         <v>68</v>
@@ -1319,7 +1322,7 @@
         <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
         <v>68</v>

--- a/doc/computers.xlsx
+++ b/doc/computers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenix/Desktop/WORKSPACES/WDK.git/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F0C079-0BC2-0248-892A-02A9FFEC74F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7EA812-5736-FF4A-8361-3D9AB7E10BAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23520" yWindow="560" windowWidth="44100" windowHeight="27180" activeTab="3" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
+    <workbookView xWindow="13400" yWindow="5360" windowWidth="44100" windowHeight="27180" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessing" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="segmentation" sheetId="3" r:id="rId3"/>
     <sheet name="computers" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
   <si>
     <t>HighPassFilter</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Magnitude</t>
   </si>
   <si>
-    <t>![Magnitude](https://latex.codecogs.com/gif.latex?M%28x_i%29%20%3D%20%5Csqrt%7Ba_x%28x_i%29%5E2%20&amp;plus;%20a_y%28x_i%29%5E2%20&amp;plus;%20a_z%28x_i%29%5E2%29%7D)</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -349,6 +346,15 @@
   </si>
   <si>
     <t>n/2</t>
+  </si>
+  <si>
+    <t>Butterworth Low-pass filter</t>
+  </si>
+  <si>
+    <t>å</t>
+  </si>
+  <si>
+    <t>![Magnitude](https://latex.codecogs.com/gif.latex?M%28x_i%29%20%3D%20%5Csqrt%7Ba_x%28x_i%29%5E2%20&amp;plus;%20a_y%28x_i%29%5E2%20&amp;plus;%20a_z%28x_i%29%5E2%7D)</t>
   </si>
 </sst>
 </file>
@@ -734,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99790EE8-D33A-9F4A-A9A3-8D9D28F19278}">
   <dimension ref="B1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,16 +759,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="17" x14ac:dyDescent="0.2">
@@ -773,13 +779,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17" x14ac:dyDescent="0.2">
@@ -787,16 +793,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="68" x14ac:dyDescent="0.2">
@@ -804,16 +810,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="51" x14ac:dyDescent="0.2">
@@ -824,13 +830,13 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="85" x14ac:dyDescent="0.2">
@@ -841,13 +847,13 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="102" x14ac:dyDescent="0.2">
@@ -855,16 +861,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="119" x14ac:dyDescent="0.2">
@@ -872,16 +878,16 @@
         <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -911,27 +917,27 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="170" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -942,16 +948,16 @@
     </row>
     <row r="3" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -980,50 +986,50 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="85" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F235E4-D004-E74F-A20E-01C6D25F8A1F}">
   <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1051,42 +1057,42 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1095,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1112,13 +1118,13 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1127,16 +1133,16 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1144,63 +1150,63 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
         <v>64</v>
       </c>
-      <c r="I6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J6" t="s">
-        <v>65</v>
-      </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1208,13 +1214,13 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1223,16 +1229,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -1240,13 +1246,13 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1255,16 +1261,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1272,14 +1278,14 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
@@ -1287,16 +1293,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -1304,31 +1310,31 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1336,13 +1342,13 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
         <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" t="s">
-        <v>49</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1353,13 +1359,13 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -1370,13 +1376,13 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1387,13 +1393,13 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1404,13 +1410,13 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1421,30 +1427,30 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1455,13 +1461,13 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1472,13 +1478,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -1489,13 +1495,13 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" t="s">
-        <v>63</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1506,13 +1512,13 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1523,13 +1529,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1540,13 +1546,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1557,13 +1563,13 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24">
         <v>1</v>

--- a/doc/computers.xlsx
+++ b/doc/computers.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenix/Desktop/WORKSPACES/WDK.git/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7EA812-5736-FF4A-8361-3D9AB7E10BAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B20486-B581-A94A-BC0A-83E441E876EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="5360" windowWidth="44100" windowHeight="27180" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
+    <workbookView xWindow="34420" yWindow="1420" windowWidth="30540" windowHeight="25420" activeTab="3" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessing" sheetId="1" r:id="rId1"/>
     <sheet name="eventDetection" sheetId="2" r:id="rId2"/>
     <sheet name="segmentation" sheetId="3" r:id="rId3"/>
-    <sheet name="computers" sheetId="4" r:id="rId4"/>
+    <sheet name="feature extractors" sheetId="5" r:id="rId4"/>
+    <sheet name="classification" sheetId="6" r:id="rId5"/>
+    <sheet name="utilities" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="170">
   <si>
     <t>HighPassFilter</t>
   </si>
   <si>
-    <t>Butterworth High-pass filter</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -69,21 +68,9 @@
     <t>n</t>
   </si>
   <si>
-    <t>4 * n</t>
-  </si>
-  <si>
-    <t>5 * n</t>
-  </si>
-  <si>
-    <t>n * k</t>
-  </si>
-  <si>
     <t>Mem</t>
   </si>
   <si>
-    <t>Comm</t>
-  </si>
-  <si>
     <t>![S1](https://latex.codecogs.com/gif.latex?S_1%28k%2Ci%2CX_i%2CT%29%20%3D%20%5Cfrac%7Bmax%28x_i%20-%20x_%7Bi-1%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%20&amp;plus;%20max%28x_i-x_%7Bi&amp;plus;1%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7B2%7D)</t>
   </si>
   <si>
@@ -96,15 +83,9 @@
     <t>MatlabPeakDetector</t>
   </si>
   <si>
-    <t>10 * n</t>
-  </si>
-  <si>
     <t>EventSegmentation</t>
   </si>
   <si>
-    <t>OverlappingWindow</t>
-  </si>
-  <si>
     <t>*segmentSize*</t>
   </si>
   <si>
@@ -123,60 +104,33 @@
     <t>AUC</t>
   </si>
   <si>
-    <t>6 * n</t>
-  </si>
-  <si>
     <t>Entropy</t>
   </si>
   <si>
-    <t>n * log(n)</t>
-  </si>
-  <si>
-    <t>n * n</t>
-  </si>
-  <si>
-    <t>Computes the DC component of the FFT of the input signal</t>
-  </si>
-  <si>
     <t>FFTDC</t>
   </si>
   <si>
     <t>IQR</t>
   </si>
   <si>
-    <t>Computes the difference between Q3 and Q1 where Q1 is the median of the n/2 smallest values and Q3 is the median of the n/2 largest values in an input signal of size n.</t>
-  </si>
-  <si>
     <t>Kurtosis</t>
   </si>
   <si>
     <t>MAD</t>
   </si>
   <si>
-    <t>7 * n</t>
-  </si>
-  <si>
     <t>Max</t>
   </si>
   <si>
-    <t>2 * n</t>
-  </si>
-  <si>
     <t>MaxCrossCorr</t>
   </si>
   <si>
     <t>MaxFrequency</t>
   </si>
   <si>
-    <t>Computes the maximum value in the fourier transform of the input signal</t>
-  </si>
-  <si>
     <t>Mean</t>
   </si>
   <si>
-    <t>3 * n</t>
-  </si>
-  <si>
     <t>Median</t>
   </si>
   <si>
@@ -198,9 +152,6 @@
     <t>RMS</t>
   </si>
   <si>
-    <t>8 * n</t>
-  </si>
-  <si>
     <t>SignalVectorMagnitude</t>
   </si>
   <si>
@@ -216,24 +167,12 @@
     <t>SMA</t>
   </si>
   <si>
-    <t>3 * n * n</t>
-  </si>
-  <si>
     <t>SpectralCentroid</t>
   </si>
   <si>
-    <t>10 * n * log(n)</t>
-  </si>
-  <si>
-    <t>8 * n * log(n)</t>
-  </si>
-  <si>
     <t>SpectralEnergy</t>
   </si>
   <si>
-    <t>15 * n * log(n)</t>
-  </si>
-  <si>
     <t>SpectralEntropy</t>
   </si>
   <si>
@@ -243,9 +182,6 @@
     <t>SpectralSpread</t>
   </si>
   <si>
-    <t>SquaredMagnitudeSum</t>
-  </si>
-  <si>
     <t>STD</t>
   </si>
   <si>
@@ -276,15 +212,6 @@
     <t>Standard Deviation of the input signal.</t>
   </si>
   <si>
-    <t>Sum of squared values of input signal.</t>
-  </si>
-  <si>
-    <t>Sum of absolute values on each input signal.</t>
-  </si>
-  <si>
-    <t>Computes *numQuantileParts* cutpoints that separate the distribution of samples in in the input signal.</t>
-  </si>
-  <si>
     <t>Peak to Peak distance (distance between maximum and minimum values).</t>
   </si>
   <si>
@@ -309,9 +236,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>*order* * n</t>
-  </si>
-  <si>
     <t>Matlab's peak detector. Properties are: *minPeakheight* and *minPeakDistance*.</t>
   </si>
   <si>
@@ -324,9 +248,6 @@
     <t>Area under the curve computed with the trapezoid rule: ![AUC](https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5E%7Bn-1%7D%20%5Cfrac%7Bx_k%20&amp;plus;%20x_%7Bk&amp;plus;1%7D%7D%7Bn%7D)</t>
   </si>
   <si>
-    <t>Distribution of power into frequency components. *Note: returns n/2 coefficients*</t>
-  </si>
-  <si>
     <t>The energy of the frequency domain (sum of squared values of dft coefficients). ![SpectralEnergy](https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5E%7Bn%7D%20%5Cbar%7By_i%7D%5E2)</t>
   </si>
   <si>
@@ -345,23 +266,287 @@
     <t>Indicates the variance in the distribution of frequencies.</t>
   </si>
   <si>
-    <t>n/2</t>
-  </si>
-  <si>
-    <t>Butterworth Low-pass filter</t>
-  </si>
-  <si>
-    <t>å</t>
-  </si>
-  <si>
     <t>![Magnitude](https://latex.codecogs.com/gif.latex?M%28x_i%29%20%3D%20%5Csqrt%7Ba_x%28x_i%29%5E2%20&amp;plus;%20a_y%28x_i%29%5E2%20&amp;plus;%20a_z%28x_i%29%5E2%7D)</t>
+  </si>
+  <si>
+    <t>Butterworth High-pass filter with order *k*</t>
+  </si>
+  <si>
+    <t>Butterworth Low-pass filter with order *k*</t>
+  </si>
+  <si>
+    <t>13 *k* n</t>
+  </si>
+  <si>
+    <t>31 *k* n</t>
+  </si>
+  <si>
+    <t>5 n</t>
+  </si>
+  <si>
+    <t>4 n</t>
+  </si>
+  <si>
+    <t>2 n</t>
+  </si>
+  <si>
+    <t>40 *k* n</t>
+  </si>
+  <si>
+    <t>203 *k* n</t>
+  </si>
+  <si>
+    <t>8 n</t>
+  </si>
+  <si>
+    <t>11 n</t>
+  </si>
+  <si>
+    <t>1787 n</t>
+  </si>
+  <si>
+    <t>15 n</t>
+  </si>
+  <si>
+    <t>6 n</t>
+  </si>
+  <si>
+    <t>57 n</t>
+  </si>
+  <si>
+    <t>3 n</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t> Pearson correlation coefficient of two n-dimensional inputs</t>
+  </si>
+  <si>
+    <t>sum of squared values in the input signal: ![Energy](https://latex.codecogs.com/gif.latex?%5Csum%20_%7Bi%3D1%7D%5E%7Bn%7D%20x%5E2)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>161 n</t>
+  </si>
+  <si>
+    <t>7 n</t>
+  </si>
+  <si>
+    <t>Sum of absolute values of every sample (takes 2-D inputs) ![SMA](https://latex.codecogs.com/gif.latex?%5Csum%20_%7Bi%3D1%7D%5E%7Bn%7D%20%5Csum%20_%7Bj%3D1%7D%5E%7Bm%7D%20%5Cleft%20%7Cx_%7Bij%7D%20%5Cright%20%7C)</t>
+  </si>
+  <si>
+    <t>FFT</t>
+  </si>
+  <si>
+    <t>FFT of the input signal</t>
+  </si>
+  <si>
+    <t>DC component of the FFT of the input signal</t>
+  </si>
+  <si>
+    <t>Maximum value in the fourier transform of the input signal</t>
+  </si>
+  <si>
+    <t>Power Spectrum?</t>
+  </si>
+  <si>
+    <t>n log2(n)</t>
+  </si>
+  <si>
+    <t>10 n</t>
+  </si>
+  <si>
+    <t>An invocation to an event detection algorithm produces 0 or 1 value.</t>
+  </si>
+  <si>
+    <t>An invocation to a segmentation algorithm produces a segment (of *segmentSize* / *segmentSizeLeft* + *segmentSizeRight* values) .</t>
+  </si>
+  <si>
+    <t>SlidingWindow</t>
+  </si>
+  <si>
+    <t>Distribution of power into frequency components. *Note: outputs n coefficients*</t>
+  </si>
+  <si>
+    <t>$n^2$</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Flop</t>
+  </si>
+  <si>
+    <t>LDClassifier</t>
+  </si>
+  <si>
+    <t>Linear Discriminant classifier</t>
+  </si>
+  <si>
+    <t>TreeClassifier</t>
+  </si>
+  <si>
+    <t>Properties: $maxNumSplits$</t>
+  </si>
+  <si>
+    <t>KNNClassifier</t>
+  </si>
+  <si>
+    <t>EnsembleClassifier</t>
+  </si>
+  <si>
+    <t>Properties: $nLearners$</t>
+  </si>
+  <si>
+    <t>SVMClassifier</t>
+  </si>
+  <si>
+    <t>Support Vector Machine. Properties: $order$, $boxConstraint$</t>
+  </si>
+  <si>
+    <t>K Nearest Neighbors classifier. Properties: $nNeighbors$, $distanceMetric$</t>
+  </si>
+  <si>
+    <t>FeatureExtractor</t>
+  </si>
+  <si>
+    <t>Generates a table from an array of segments using the feature extraction method set in the *computers* property</t>
+  </si>
+  <si>
+    <t>FeatureNormalizer</t>
+  </si>
+  <si>
+    <t>Normalizes a feature vector by subtracting the *means* property and dividing by the *stds* property. If the *shouldComputeNormalizationValues* poperty is set to *true*, it computes the *means* and *stds * properties from the input table</t>
+  </si>
+  <si>
+    <t>n m</t>
+  </si>
+  <si>
+    <t>2 m</t>
+  </si>
+  <si>
+    <t>FeatureSelector</t>
+  </si>
+  <si>
+    <t>Returns a table with the columns in *selectedFeatureIdxs* property. The *findBestFeaturesForTable(f)* method can be used to identify the *f* most relevant features. The mRMR feature selection algorithm is used for this purpose</t>
+  </si>
+  <si>
+    <t>ConstantMultiplier</t>
+  </si>
+  <si>
+    <t>Multiplies an input by the *constant* property</t>
+  </si>
+  <si>
+    <t>Substraction</t>
+  </si>
+  <si>
+    <t>Subtracts the second column from the first column of the input signal</t>
+  </si>
+  <si>
+    <t>AxisMerger</t>
+  </si>
+  <si>
+    <t>Merges *m* signals of size *n* into an *n*x*m* matrix. Outputs the merged signal as soon as *m* signals have been received. The *nAxes* property indicates how many signals are expected</t>
+  </si>
+  <si>
+    <t>AxisSelector</t>
+  </si>
+  <si>
+    <t>Selects the *axes* columns of the provided input matrix. Returns a new matrix</t>
+  </si>
+  <si>
+    <t>Merger</t>
+  </si>
+  <si>
+    <t>NoOp</t>
+  </si>
+  <si>
+    <t>Outputs the input object without modification. Can be useful when connected to several nodes to start an execution graph with multiple entry points</t>
+  </si>
+  <si>
+    <t>PropertyGetter</t>
+  </si>
+  <si>
+    <t>Outputs the value of the *property* property of the input object</t>
+  </si>
+  <si>
+    <t>PropertySetter</t>
+  </si>
+  <si>
+    <t>Sets the *property* property of the *node* object to the input value. Outputs an empty object</t>
+  </si>
+  <si>
+    <t>RangeSelector</t>
+  </si>
+  <si>
+    <t>Outputs a signal with the values in the range [*rangeStart* - *rangeEnd*] of the input signal</t>
+  </si>
+  <si>
+    <t>SegmentsGrouper</t>
+  </si>
+  <si>
+    <t>Receives an array of segments and outputs the segments grouped by their class in a cell array. Each cell at index *i* contains an array of the segments of class *i* in the input</t>
+  </si>
+  <si>
+    <t>TableRowSelector</t>
+  </si>
+  <si>
+    <t>Selects the rows with *selectedLabels* labels in the input Table. Returns the filtered input Table</t>
+  </si>
+  <si>
+    <t>*rangeEnd* - *rangeStart*</t>
+  </si>
+  <si>
+    <t>m n</t>
+  </si>
+  <si>
+    <t>Merges *m* objects into a cell array. Generates an output as soon as *m* objects have been received</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The amount of memory required by the PropertyGetter depends on the property obtained and is computed dynamically. </t>
+  </si>
+  <si>
+    <t>The performance of each classifier depends on its configuration and is calculated at runtime.</t>
+  </si>
+  <si>
+    <t>Invocations to preprocessing algorithms produce *n* values</t>
+  </si>
+  <si>
+    <t>Computes the *numQuantileParts* cutpoints that separate the distribution of samples in the input signal.</t>
+  </si>
+  <si>
+    <t>3 n log2(n)</t>
+  </si>
+  <si>
+    <t>Computes the difference between Q3 and Q1 where Q1 is the median of the n/2 smallest values and Q3 is the median of the n/2 largest values in an input signal of size n. Can be calculated in O(n) time.</t>
+  </si>
+  <si>
+    <t>68 n</t>
+  </si>
+  <si>
+    <t>21 n</t>
+  </si>
+  <si>
+    <t>Invocations to frequency-domain feature extraction algorithms output a single value except for the FFT and PowerSpectrum which produce *n/2* and *n* values respectively</t>
+  </si>
+  <si>
+    <t>Invocations to time-domain feature extraction algorithms produce a single value except for the Quantile component which produces *numQuantileParts* values</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -385,6 +570,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -407,7 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -423,6 +626,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -738,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99790EE8-D33A-9F4A-A9A3-8D9D28F19278}">
-  <dimension ref="B1:F8"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -756,138 +971,120 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="85" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="102" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="119" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -900,67 +1097,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3262CBCF-E085-BF48-9352-9B4D819BCA3C}">
-  <dimension ref="B1:F3"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="3" max="3" width="77.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:6" ht="170" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
+      <c r="F2" s="1"/>
     </row>
     <row r="3" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -970,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10BBCD1-E415-E145-B533-EFE59CA1F207}">
-  <dimension ref="B2:F4"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,53 +1179,52 @@
   <sheetData>
     <row r="2" spans="2:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="85" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1038,551 +1233,811 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F235E4-D004-E74F-A20E-01C6D25F8A1F}">
-  <dimension ref="B2:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557E002C-8107-7641-99A2-BF0AF967222A}">
+  <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="66" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="I2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
         <v>102</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" t="s">
         <v>53</v>
       </c>
-      <c r="I5" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="C24" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
         <v>103</v>
       </c>
-      <c r="J9" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5E%7Bn-1%7D%20%5Cfrac%7B%5Cleft%20%7Cx_i%20-%20x_%7Bi-1%7D%20%5Cright%20%7C%20%7D%7Bn%7D" xr:uid="{95EFB4BF-D469-8E46-904E-E08A047D1555}"/>
+    <hyperlink ref="C14" r:id="rId1" display="https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5E%7Bn-1%7D%20%5Cfrac%7B%5Cleft%20%7Cx_i%20-%20x_%7Bi-1%7D%20%5Cright%20%7C%20%7D%7Bn%7D" xr:uid="{F168FDD6-8EF4-DA4E-9E2C-FACD02E88B88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437916AE-1E40-4F43-990E-A9DE77AEB58F}">
+  <dimension ref="B2:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="23" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D497E10B-50B3-574F-8EC1-2744148AE1B9}">
+  <dimension ref="B2:E19"/>
+  <sheetViews>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/computers.xlsx
+++ b/doc/computers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenix/Desktop/WORKSPACES/WDK.git/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B20486-B581-A94A-BC0A-83E441E876EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05900AC5-AE10-204A-B052-78C49035A252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34420" yWindow="1420" windowWidth="30540" windowHeight="25420" activeTab="3" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
+    <workbookView xWindow="39080" yWindow="1960" windowWidth="30540" windowHeight="25420" activeTab="4" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessing" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="168">
   <si>
     <t>HighPassFilter</t>
   </si>
@@ -68,9 +68,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>Mem</t>
-  </si>
-  <si>
     <t>![S1](https://latex.codecogs.com/gif.latex?S_1%28k%2Ci%2CX_i%2CT%29%20%3D%20%5Cfrac%7Bmax%28x_i%20-%20x_%7Bi-1%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%20&amp;plus;%20max%28x_i-x_%7Bi&amp;plus;1%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7B2%7D)</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>Maximum value in the fourier transform of the input signal</t>
   </si>
   <si>
-    <t>Power Spectrum?</t>
-  </si>
-  <si>
     <t>n log2(n)</t>
   </si>
   <si>
@@ -368,9 +362,6 @@
     <t>An invocation to an event detection algorithm produces 0 or 1 value.</t>
   </si>
   <si>
-    <t>An invocation to a segmentation algorithm produces a segment (of *segmentSize* / *segmentSizeLeft* + *segmentSizeRight* values) .</t>
-  </si>
-  <si>
     <t>SlidingWindow</t>
   </si>
   <si>
@@ -425,15 +416,9 @@
     <t>FeatureNormalizer</t>
   </si>
   <si>
-    <t>Normalizes a feature vector by subtracting the *means* property and dividing by the *stds* property. If the *shouldComputeNormalizationValues* poperty is set to *true*, it computes the *means* and *stds * properties from the input table</t>
-  </si>
-  <si>
     <t>n m</t>
   </si>
   <si>
-    <t>2 m</t>
-  </si>
-  <si>
     <t>FeatureSelector</t>
   </si>
   <si>
@@ -512,15 +497,6 @@
     <t>Merges *m* objects into a cell array. Generates an output as soon as *m* objects have been received</t>
   </si>
   <si>
-    <t xml:space="preserve">The amount of memory required by the PropertyGetter depends on the property obtained and is computed dynamically. </t>
-  </si>
-  <si>
-    <t>The performance of each classifier depends on its configuration and is calculated at runtime.</t>
-  </si>
-  <si>
-    <t>Invocations to preprocessing algorithms produce *n* values</t>
-  </si>
-  <si>
     <t>Computes the *numQuantileParts* cutpoints that separate the distribution of samples in the input signal.</t>
   </si>
   <si>
@@ -539,7 +515,25 @@
     <t>Invocations to frequency-domain feature extraction algorithms output a single value except for the FFT and PowerSpectrum which produce *n/2* and *n* values respectively</t>
   </si>
   <si>
-    <t>Invocations to time-domain feature extraction algorithms produce a single value except for the Quantile component which produces *numQuantileParts* values</t>
+    <t>Invocations to preprocessing algorithms produce *n* values.</t>
+  </si>
+  <si>
+    <t>An invocation to a segmentation algorithm produces a segment (of *segmentSize* / *segmentSizeLeft* + *segmentSizeRight* values).</t>
+  </si>
+  <si>
+    <t>Invocations to time-domain feature extraction algorithms produce a single value except for the Quantile component which produces *numQuantileParts* values.</t>
+  </si>
+  <si>
+    <t>* The amount of memory and output size of the *PropertyGetter* and *NoOp* modules depend on their input and configuraton values and are computed at runtime.</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Normalizes a features table by subtracting the *means* property and dividing by the *stds* property. If the *shouldComputeNormalizationValues* poperty is set to *true*, it computes the *means* and *stds * properties from the input table</t>
+  </si>
+  <si>
+    <t>The performance metrics of each classifier depends on its configuration and are calculated at runtime.</t>
   </si>
 </sst>
 </file>
@@ -956,7 +950,7 @@
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -974,13 +968,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -989,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1003,10 +997,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -1017,10 +1011,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -1034,7 +1028,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1048,7 +1042,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1059,10 +1053,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -1073,10 +1067,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -1084,7 +1078,7 @@
     </row>
     <row r="10" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1094,7 @@
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1114,25 +1108,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:6" ht="170" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1141,13 +1135,13 @@
     </row>
     <row r="3" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -1156,7 +1150,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1163,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1182,49 +1176,49 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="85" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1236,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557E002C-8107-7641-99A2-BF0AF967222A}">
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,35 +1247,35 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="F2" s="2"/>
       <c r="I2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>116</v>
+      <c r="L2" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1290,13 +1284,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>105</v>
-      </c>
       <c r="K3" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>11</v>
@@ -1305,10 +1299,10 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1317,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K4" s="11">
         <v>1</v>
@@ -1331,10 +1325,10 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1343,10 +1337,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>11</v>
@@ -1357,25 +1351,25 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>11</v>
@@ -1383,25 +1377,25 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L7" s="11">
         <v>1</v>
@@ -1409,25 +1403,25 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L8" s="11">
         <v>1</v>
@@ -1435,25 +1429,25 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="L9" s="11">
         <v>1</v>
@@ -1461,25 +1455,25 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="L10" s="11">
         <v>1</v>
@@ -1487,25 +1481,25 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" s="11">
         <v>1</v>
@@ -1513,13 +1507,13 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -1527,13 +1521,13 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1541,47 +1535,44 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
-      </c>
-      <c r="I15" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1589,13 +1580,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1603,13 +1594,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1617,13 +1608,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1631,13 +1622,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1645,13 +1636,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1659,27 +1650,27 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1687,13 +1678,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1701,13 +1692,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1715,7 +1706,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -1737,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437916AE-1E40-4F43-990E-A9DE77AEB58F}">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1752,54 +1743,54 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="23" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1809,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D497E10B-50B3-574F-8EC1-2744148AE1B9}">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E16"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1822,219 +1813,264 @@
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="34" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>99</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="F12" t="s">
         <v>99</v>
       </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="C13" t="s">
         <v>145</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
+      <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="7" t="s">
+      <c r="C15" t="s">
         <v>149</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
+      <c r="C16" t="s">
         <v>151</v>
       </c>
-      <c r="C14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" t="s">
-        <v>156</v>
-      </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="F16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/doc/computers.xlsx
+++ b/doc/computers.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenix/Desktop/WORKSPACES/WDK.git/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05900AC5-AE10-204A-B052-78C49035A252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37822615-00B8-EF4E-9011-262D710C0A13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39080" yWindow="1960" windowWidth="30540" windowHeight="25420" activeTab="4" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
+    <workbookView xWindow="39060" yWindow="900" windowWidth="30540" windowHeight="25420" activeTab="6" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessing" sheetId="1" r:id="rId1"/>
     <sheet name="eventDetection" sheetId="2" r:id="rId2"/>
     <sheet name="segmentation" sheetId="3" r:id="rId3"/>
-    <sheet name="feature extractors" sheetId="5" r:id="rId4"/>
-    <sheet name="classification" sheetId="6" r:id="rId5"/>
-    <sheet name="utilities" sheetId="7" r:id="rId6"/>
+    <sheet name="labeling" sheetId="8" r:id="rId4"/>
+    <sheet name="feature extractors" sheetId="5" r:id="rId5"/>
+    <sheet name="classification" sheetId="6" r:id="rId6"/>
+    <sheet name="utilities" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="176">
   <si>
     <t>HighPassFilter</t>
   </si>
@@ -149,9 +150,6 @@
     <t>RMS</t>
   </si>
   <si>
-    <t>SignalVectorMagnitude</t>
-  </si>
-  <si>
     <t>Skewness</t>
   </si>
   <si>
@@ -368,9 +366,6 @@
     <t>Distribution of power into frequency components. *Note: outputs n coefficients*</t>
   </si>
   <si>
-    <t>$n^2$</t>
-  </si>
-  <si>
     <t>Memory</t>
   </si>
   <si>
@@ -386,27 +381,15 @@
     <t>TreeClassifier</t>
   </si>
   <si>
-    <t>Properties: $maxNumSplits$</t>
-  </si>
-  <si>
     <t>KNNClassifier</t>
   </si>
   <si>
     <t>EnsembleClassifier</t>
   </si>
   <si>
-    <t>Properties: $nLearners$</t>
-  </si>
-  <si>
     <t>SVMClassifier</t>
   </si>
   <si>
-    <t>Support Vector Machine. Properties: $order$, $boxConstraint$</t>
-  </si>
-  <si>
-    <t>K Nearest Neighbors classifier. Properties: $nNeighbors$, $distanceMetric$</t>
-  </si>
-  <si>
     <t>FeatureExtractor</t>
   </si>
   <si>
@@ -524,16 +507,58 @@
     <t>Invocations to time-domain feature extraction algorithms produce a single value except for the Quantile component which produces *numQuantileParts* values.</t>
   </si>
   <si>
-    <t>* The amount of memory and output size of the *PropertyGetter* and *NoOp* modules depend on their input and configuraton values and are computed at runtime.</t>
-  </si>
-  <si>
     <t>Communication</t>
   </si>
   <si>
     <t>Normalizes a features table by subtracting the *means* property and dividing by the *stds* property. If the *shouldComputeNormalizationValues* poperty is set to *true*, it computes the *means* and *stds * properties from the input table</t>
   </si>
   <si>
-    <t>The performance metrics of each classifier depends on its configuration and are calculated at runtime.</t>
+    <t>The performance metrics of each classifier depend on its configuration and are calculated at runtime.</t>
+  </si>
+  <si>
+    <t>SMV</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The amount of memory and output size of the *PropertyGetter* and *NoOp* modules depend on their input and configuration values and are computed at runtime.</t>
+  </si>
+  <si>
+    <t>EventsLabeler</t>
+  </si>
+  <si>
+    <t>EventSegmentsLabeler</t>
+  </si>
+  <si>
+    <t>RangeSegmentsLabeler</t>
+  </si>
+  <si>
+    <t>LabelMapper</t>
+  </si>
+  <si>
+    <t>Maps labels to groups</t>
+  </si>
+  <si>
+    <t>Labels events as the closest event annotation under a specified *tolerance*</t>
+  </si>
+  <si>
+    <t>Labels segments generated from an event using the *EventsLabeler*</t>
+  </si>
+  <si>
+    <t>Labels segments based on range annotations. If the *shouldContainEntireSegment* is set to *true*, segments are labeled if they are fully contained in an annotation. Otherwise, segments are labeled if their middle point is contained within a range annotation</t>
+  </si>
+  <si>
+    <t>n^2</t>
+  </si>
+  <si>
+    <t>Properties: *maxNumSplits*</t>
+  </si>
+  <si>
+    <t>K Nearest Neighbors classifier. Properties: *nNeighbors*, *distanceMetric*</t>
+  </si>
+  <si>
+    <t>Properties: *nLearners*</t>
+  </si>
+  <si>
+    <t>Support Vector Machine. Properties: *order*, *boxConstraint*</t>
   </si>
 </sst>
 </file>
@@ -950,7 +975,7 @@
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,13 +993,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -983,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -997,10 +1022,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -1011,10 +1036,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -1028,7 +1053,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -1042,7 +1067,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1056,7 +1081,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -1070,7 +1095,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>11</v>
@@ -1078,7 +1103,7 @@
     </row>
     <row r="10" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1119,7 @@
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1108,13 +1133,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -1123,10 +1148,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1138,10 +1163,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -1150,7 +1175,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +1188,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1176,19 +1201,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="85" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
@@ -1218,7 +1243,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1227,11 +1252,70 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CD97FF-A059-4A4E-B72E-1B68161FAD55}">
+  <dimension ref="B3:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557E002C-8107-7641-99A2-BF0AF967222A}">
   <dimension ref="B2:M48"/>
   <sheetViews>
     <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1247,26 +1331,26 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2"/>
       <c r="I2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M2" s="2"/>
     </row>
@@ -1275,7 +1359,7 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1284,13 +1368,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="K3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>11</v>
@@ -1302,7 +1386,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1314,7 +1398,7 @@
         <v>24</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K4" s="11">
         <v>1</v>
@@ -1328,7 +1412,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1340,7 +1424,7 @@
         <v>30</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>11</v>
@@ -1354,10 +1438,10 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1366,10 +1450,10 @@
         <v>36</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>11</v>
@@ -1377,25 +1461,25 @@
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L7" s="11">
         <v>1</v>
@@ -1403,25 +1487,25 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L8" s="11">
         <v>1</v>
@@ -1429,25 +1513,25 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L9" s="11">
         <v>1</v>
@@ -1455,25 +1539,25 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="L10" s="11">
         <v>1</v>
@@ -1484,22 +1568,22 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L11" s="11">
         <v>1</v>
@@ -1510,10 +1594,10 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -1524,10 +1608,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1538,27 +1622,27 @@
         <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -1566,13 +1650,13 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1583,10 +1667,10 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1597,10 +1681,10 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1611,10 +1695,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1625,10 +1709,10 @@
         <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1639,10 +1723,10 @@
         <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1653,13 +1737,13 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -1667,24 +1751,24 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1692,13 +1776,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1706,7 +1790,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -1724,12 +1808,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437916AE-1E40-4F43-990E-A9DE77AEB58F}">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1743,54 +1827,54 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="23" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1798,12 +1882,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D497E10B-50B3-574F-8EC1-2744148AE1B9}">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1818,75 +1902,75 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1900,13 +1984,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1917,44 +2001,44 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1968,10 +2052,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1980,32 +2064,32 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2014,63 +2098,63 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
         <v>146</v>
       </c>
-      <c r="C14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>152</v>
-      </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/doc/computers.xlsx
+++ b/doc/computers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenix/Desktop/WORKSPACES/WDK.git/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37822615-00B8-EF4E-9011-262D710C0A13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34D5325-9DDD-3842-A7B5-0F0D494F06E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39060" yWindow="900" windowWidth="30540" windowHeight="25420" activeTab="6" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
+    <workbookView xWindow="35500" yWindow="780" windowWidth="30540" windowHeight="25420" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessing" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="181">
   <si>
     <t>HighPassFilter</t>
   </si>
@@ -48,15 +48,9 @@
     <t>SquaredMagnitude</t>
   </si>
   <si>
-    <t>![Energy](https://latex.codecogs.com/gif.latex?E%28x_i%29%20%3D%20a_x%28x_i%29%5E2%20&amp;plus;%20a_y%28x_i%29%5E2%20&amp;plus;%20a_z%28x_i%29%5E2)</t>
-  </si>
-  <si>
     <t>Norm</t>
   </si>
   <si>
-    <t>![Norm](https://latex.codecogs.com/gif.latex?N%28x_i%29%20%3D%20%5Cleft%7C%20a_x%28x_i%29%20%5Cright%7C%20&amp;plus;%20%5Cleft%7C%20a_y%28x_i%29%20%5Cright%7C%20&amp;plus;%20%5Cleft%7C%20a_z%28x_i%29%20%5Cright%7C)</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -69,12 +63,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>![S1](https://latex.codecogs.com/gif.latex?S_1%28k%2Ci%2CX_i%2CT%29%20%3D%20%5Cfrac%7Bmax%28x_i%20-%20x_%7Bi-1%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%20&amp;plus;%20max%28x_i-x_%7Bi&amp;plus;1%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7B2%7D)</t>
-  </si>
-  <si>
-    <t>![S2](https://latex.codecogs.com/gif.latex?S_2%28k%2Ci%2CX_i%2CT%29%20%3D%20%5Cfrac%7B%5Cfrac%7Bmax%28x_i%20-%20x_%7Bi-1%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%7D%7Bk%7D%20&amp;plus;%20%5Cfrac%7Bmax%28x_i-x_%7Bi&amp;plus;1%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7Bk%7D%7D%7B2%7D)</t>
-  </si>
-  <si>
     <t>SimplePeakDetector</t>
   </si>
   <si>
@@ -261,9 +249,6 @@
     <t>Indicates the variance in the distribution of frequencies.</t>
   </si>
   <si>
-    <t>![Magnitude](https://latex.codecogs.com/gif.latex?M%28x_i%29%20%3D%20%5Csqrt%7Ba_x%28x_i%29%5E2%20&amp;plus;%20a_y%28x_i%29%5E2%20&amp;plus;%20a_z%28x_i%29%5E2%7D)</t>
-  </si>
-  <si>
     <t>Butterworth High-pass filter with order *k*</t>
   </si>
   <si>
@@ -498,9 +483,6 @@
     <t>Invocations to frequency-domain feature extraction algorithms output a single value except for the FFT and PowerSpectrum which produce *n/2* and *n* values respectively</t>
   </si>
   <si>
-    <t>Invocations to preprocessing algorithms produce *n* values.</t>
-  </si>
-  <si>
     <t>An invocation to a segmentation algorithm produces a segment (of *segmentSize* / *segmentSizeLeft* + *segmentSizeRight* values).</t>
   </si>
   <si>
@@ -559,6 +541,39 @@
   </si>
   <si>
     <t>Support Vector Machine. Properties: *order*, *boxConstraint*</t>
+  </si>
+  <si>
+    <t>ManualSegmentation</t>
+  </si>
+  <si>
+    <t>Creates segments for each annotation (converts RangeAnnotations to segments and creates segments around each EventAnnotations). This segmentation strategy cannot be used in a real application, but is useful to study the quality of the annotations</t>
+  </si>
+  <si>
+    <t>1 / n</t>
+  </si>
+  <si>
+    <t>Invocations to preprocessing algorithms produce *n* values. The memory consumption of most preprocessing algorithms is 1 if the *inPlaceComputation* property is set to true or *n* otherwise.</t>
+  </si>
+  <si>
+    <t>Derivative</t>
+  </si>
+  <si>
+    <t>First derivative: https://latex.codecogs.com/gif.latex?D%27_i%28x%29%20%3D%20%28x_i%20-%20x_%7Bi&amp;plus;1%7D%29%20/%20%5Cdelta. Second derivative: https://latex.codecogs.com/gif.latex?D%27%27_i%28x%29%20%3D%20%28x_%7Bi-1%7D%20-%20x_i%20&amp;plus;%20x_%7Bi&amp;plus;1%7D%29%20/%20%5Cdelta%5E2</t>
+  </si>
+  <si>
+    <t>![Magnitude](https://latex.codecogs.com/gif.latex?M_i%28x%2Cy%2Cz%29%20%3D%20%5Csqrt%7Bx_i%5E2%20&amp;plus;%20y_i%5E2%20&amp;plus;%20z_i%5E2%7D)</t>
+  </si>
+  <si>
+    <t>![Energy](https://latex.codecogs.com/gif.latex?E_i%28x%2Cy%2Cz%29%20%3D%20x_i%5E2%20&amp;plus;%20y_i%5E2%20&amp;plus;%20z_i%5E2)</t>
+  </si>
+  <si>
+    <t>![Norm](https://latex.codecogs.com/gif.latex?N_i%28x%2Cy%2Cz%29%20%3D%20%5Cleft%7C%20x_i%20%5Cright%7C%20&amp;plus;%20%5Cleft%7C%20y_i%20%5Cright%7C%20&amp;plus;%20%5Cleft%7C%20z_i%20%5Cright%7C)</t>
+  </si>
+  <si>
+    <t>![S2](https://latex.codecogs.com/gif.latex?S2_i%28x%29%20%3D%20%5Cfrac%7B%5Cfrac%7Bmax%28x_i%20-%20x_%7Bi-1%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%7D%7Bk%7D%20&amp;plus;%20%5Cfrac%7Bmax%28x_i-x_%7Bi&amp;plus;1%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7Bk%7D%7D%7B2%7D)</t>
+  </si>
+  <si>
+    <t>![S1](https://latex.codecogs.com/gif.latex?S1_i%28x%29%20%3D%20%5Cfrac%7Bmax%28x_i%20-%20x_%7Bi-1%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%20&amp;plus;%20max%28x_i-x_%7Bi&amp;plus;1%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7B2%7D)</t>
   </si>
 </sst>
 </file>
@@ -972,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99790EE8-D33A-9F4A-A9A3-8D9D28F19278}">
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -993,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -1008,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17" x14ac:dyDescent="0.2">
@@ -1022,27 +1037,27 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="51" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="51" x14ac:dyDescent="0.2">
@@ -1050,65 +1065,73 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="119" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>155</v>
+    </row>
+    <row r="12" spans="2:6" ht="170" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" display="https://latex.codecogs.com/gif.latex?S_1%28k%2Ci%2CX_i%2CT%29%20%3D%20%5Cfrac%7Bmax%28x_i%20-%20x_%7Bi-1%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%20&amp;plus;%20max%28x_i-x_%7Bi&amp;plus;1%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7B2%7D" xr:uid="{131BD98A-DBB0-2E46-AF42-3A8BE2E14C8A}"/>
+    <hyperlink ref="C8" r:id="rId1" display="https://latex.codecogs.com/gif.latex?S_1%28k%2Ci%2CX_i%2CT%29%20%3D%20%5Cfrac%7Bmax%28x_i%20-%20x_%7Bi-1%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%20&amp;plus;%20max%28x_i-x_%7Bi&amp;plus;1%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7B2%7D" xr:uid="{131BD98A-DBB0-2E46-AF42-3A8BE2E14C8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1119,12 +1142,12 @@
   <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="77.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1133,25 +1156,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:6" ht="170" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1160,22 +1183,22 @@
     </row>
     <row r="3" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1185,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10BBCD1-E415-E145-B533-EFE59CA1F207}">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,49 +1224,63 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="85" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="2:6" ht="68" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>156</v>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1270,39 +1307,39 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="51" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1331,74 +1368,74 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F2" s="2"/>
       <c r="I2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K4" s="11">
         <v>1</v>
@@ -1409,25 +1446,25 @@
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L5" s="11">
         <v>1</v>
@@ -1435,51 +1472,51 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="J6" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="L7" s="11">
         <v>1</v>
@@ -1487,25 +1524,25 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L8" s="11">
         <v>1</v>
@@ -1513,25 +1550,25 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L9" s="11">
         <v>1</v>
@@ -1539,25 +1576,25 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L10" s="11">
         <v>1</v>
@@ -1565,25 +1602,25 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L11" s="11">
         <v>1</v>
@@ -1591,27 +1628,27 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1619,44 +1656,44 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1664,27 +1701,27 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1692,27 +1729,27 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1720,13 +1757,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1734,27 +1771,27 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1762,13 +1799,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1776,13 +1813,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1790,7 +1827,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -1827,54 +1864,54 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="23" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1886,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D497E10B-50B3-574F-8EC1-2744148AE1B9}">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+    <sheetView zoomScale="112" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1902,143 +1939,143 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2052,10 +2089,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2064,32 +2101,32 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2098,63 +2135,63 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
         <v>141</v>
       </c>
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>146</v>
-      </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/doc/computers.xlsx
+++ b/doc/computers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenix/Desktop/WORKSPACES/WDK.git/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34D5325-9DDD-3842-A7B5-0F0D494F06E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8367214A-42A0-5A4A-80DB-BCE65A60B7E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35500" yWindow="780" windowWidth="30540" windowHeight="25420" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
+    <workbookView xWindow="36000" yWindow="820" windowWidth="30540" windowHeight="25420" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessing" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="182">
   <si>
     <t>HighPassFilter</t>
   </si>
@@ -552,15 +552,9 @@
     <t>1 / n</t>
   </si>
   <si>
-    <t>Invocations to preprocessing algorithms produce *n* values. The memory consumption of most preprocessing algorithms is 1 if the *inPlaceComputation* property is set to true or *n* otherwise.</t>
-  </si>
-  <si>
     <t>Derivative</t>
   </si>
   <si>
-    <t>First derivative: https://latex.codecogs.com/gif.latex?D%27_i%28x%29%20%3D%20%28x_i%20-%20x_%7Bi&amp;plus;1%7D%29%20/%20%5Cdelta. Second derivative: https://latex.codecogs.com/gif.latex?D%27%27_i%28x%29%20%3D%20%28x_%7Bi-1%7D%20-%20x_i%20&amp;plus;%20x_%7Bi&amp;plus;1%7D%29%20/%20%5Cdelta%5E2</t>
-  </si>
-  <si>
     <t>![Magnitude](https://latex.codecogs.com/gif.latex?M_i%28x%2Cy%2Cz%29%20%3D%20%5Csqrt%7Bx_i%5E2%20&amp;plus;%20y_i%5E2%20&amp;plus;%20z_i%5E2%7D)</t>
   </si>
   <si>
@@ -574,6 +568,15 @@
   </si>
   <si>
     <t>![S1](https://latex.codecogs.com/gif.latex?S1_i%28x%29%20%3D%20%5Cfrac%7Bmax%28x_i%20-%20x_%7Bi-1%7D%2C...%2Cx_i%20-%20x_%7Bi-k%7D%29%20&amp;plus;%20max%28x_i-x_%7Bi&amp;plus;1%7D%2C...%2Cx_i-x_%7Bi&amp;plus;k%7D%29%7D%7B2%7D)</t>
+  </si>
+  <si>
+    <t>Invocations to preprocessing algorithms produce *n* values. The memory consumption of most preprocessing algorithms is *1* if the *inPlaceComputation* property is set to *true* or *n* otherwise.</t>
+  </si>
+  <si>
+    <t>First derivative: ![Derivative](https://latex.codecogs.com/gif.latex?D%27_i%28x%29%20%3D%20%28x_i%20-%20x_%7Bi&amp;plus;1%7D%29%20/%20%5Cdelta. Second derivative: https://latex.codecogs.com/gif.latex?D%27%27_i%28x%29%20%3D%20%28x_%7Bi-1%7D%20-%20x_i%20&amp;plus;%20x_%7Bi&amp;plus;1%7D%29%20/%20%5Cdelta%5E2)</t>
+  </si>
+  <si>
+    <t>40 n</t>
   </si>
 </sst>
 </file>
@@ -990,7 +993,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>77</v>
@@ -1065,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>78</v>
@@ -1079,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>78</v>
@@ -1090,10 +1093,16 @@
     </row>
     <row r="7" spans="2:6" ht="153" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="102" x14ac:dyDescent="0.2">
@@ -1101,7 +1110,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>79</v>
@@ -1115,7 +1124,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>80</v>
@@ -1124,9 +1133,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="170" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:6" ht="204" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/doc/computers.xlsx
+++ b/doc/computers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenix/Desktop/WORKSPACES/WDK.git/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8367214A-42A0-5A4A-80DB-BCE65A60B7E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B6DAA1-8512-EA46-B6F9-57B9EF7E08B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="820" windowWidth="30540" windowHeight="25420" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
   </bookViews>
@@ -573,10 +573,10 @@
     <t>Invocations to preprocessing algorithms produce *n* values. The memory consumption of most preprocessing algorithms is *1* if the *inPlaceComputation* property is set to *true* or *n* otherwise.</t>
   </si>
   <si>
-    <t>First derivative: ![Derivative](https://latex.codecogs.com/gif.latex?D%27_i%28x%29%20%3D%20%28x_i%20-%20x_%7Bi&amp;plus;1%7D%29%20/%20%5Cdelta. Second derivative: https://latex.codecogs.com/gif.latex?D%27%27_i%28x%29%20%3D%20%28x_%7Bi-1%7D%20-%20x_i%20&amp;plus;%20x_%7Bi&amp;plus;1%7D%29%20/%20%5Cdelta%5E2)</t>
-  </si>
-  <si>
     <t>40 n</t>
+  </si>
+  <si>
+    <t>First derivative: ![Derivative](https://latex.codecogs.com/gif.latex?D%27_i%28x%29%20%3D%20%28x_i%20-%20x_%7Bi&amp;plus;1%7D%29%20/%20%5Cdelta). Second derivative: ![Second derivative](https://latex.codecogs.com/gif.latex?D%27%27_i%28x%29%20%3D%20%28x_%7Bi-1%7D%20-%20x_i%20&amp;plus;%20x_%7Bi&amp;plus;1%7D%29%20/%20%5Cdelta%5E2)</t>
   </si>
 </sst>
 </file>
@@ -993,7 +993,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1096,10 +1096,10 @@
         <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>172</v>

--- a/doc/computers.xlsx
+++ b/doc/computers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avenix/Desktop/WORKSPACES/WDK.git/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B6DAA1-8512-EA46-B6F9-57B9EF7E08B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2398D530-C1B9-FF4C-8F0B-3BBE51711F87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="820" windowWidth="30540" windowHeight="25420" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
+    <workbookView xWindow="36000" yWindow="820" windowWidth="30540" windowHeight="25420" activeTab="4" xr2:uid="{16D233A6-8DE0-D344-B543-6D39CACD4C5A}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessing" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="labeling" sheetId="8" r:id="rId4"/>
     <sheet name="feature extractors" sheetId="5" r:id="rId5"/>
     <sheet name="classification" sheetId="6" r:id="rId6"/>
-    <sheet name="utilities" sheetId="7" r:id="rId7"/>
+    <sheet name="postprocessing" sheetId="9" r:id="rId7"/>
+    <sheet name="utilities" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="185">
   <si>
     <t>HighPassFilter</t>
   </si>
@@ -237,9 +238,6 @@
     <t>Indicates where the "center of mass" of the spectrum is located. ![SpectralCentroid](https://latex.codecogs.com/gif.latex?%5Cfrac%7B%5Csum_%7Bi%3D1%7D%5E%7Bn-1%7D%20%5Cbar%7By_i%7D%20y_%7Bi%7D%7D%7B%5Csum_%7Bi%3D1%7D%5E%7Bn-1%7D%20y_i%7D)</t>
   </si>
   <si>
-    <t>Indicates how chaotic / how much informatiomn there is in the frequency distribution. Calculated as: ![SpectralEntropy](https://latex.codecogs.com/gif.latex?-%5Csum_%7Bi%3D1%7D%5En%7By_i%5Clog_2%20%28y_i%29%7D) where y_i are the coefficients of the power spectrum of the input signal</t>
-  </si>
-  <si>
     <t>Estimates the amount of information in the input signal. Rare events (i.e. sample values) carry more information (and have a higher entropy) than seldom events. ![AUC](https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5En%7Bp_i%5Clog%20%28p_i%29%7D) where pi are the probability distribution values of the input signal</t>
   </si>
   <si>
@@ -577,6 +575,18 @@
   </si>
   <si>
     <t>First derivative: ![Derivative](https://latex.codecogs.com/gif.latex?D%27_i%28x%29%20%3D%20%28x_i%20-%20x_%7Bi&amp;plus;1%7D%29%20/%20%5Cdelta). Second derivative: ![Second derivative](https://latex.codecogs.com/gif.latex?D%27%27_i%28x%29%20%3D%20%28x_%7Bi-1%7D%20-%20x_i%20&amp;plus;%20x_%7Bi&amp;plus;1%7D%29%20/%20%5Cdelta%5E2)</t>
+  </si>
+  <si>
+    <t>Indicates how chaotic / how much informatiomn there is in the frequency distribution. Calculated as: ![SpectralEntropy](https://latex.codecogs.com/gif.latex?%5Csum_%7Bi%3D1%7D%5En%7By_i%5Clog2%28y_i%29%7D) where yi are the coefficients of the power spectrum of the input signal</t>
+  </si>
+  <si>
+    <t>maps classified labels to different labels. Can be used to group classified labels when a greater level of detail was used in the classification.</t>
+  </si>
+  <si>
+    <t>LabelSlidingWindowMaxSelector</t>
+  </si>
+  <si>
+    <t>replaces every label at index labelIndex in an array of predicted labels with the most frequent label in the range [labelIndex −windowSize/2,labelIndex +windowSize/2, or with the NULL-class if no label occurs at least minimumCount times in the range</t>
   </si>
 </sst>
 </file>
@@ -992,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99790EE8-D33A-9F4A-A9A3-8D9D28F19278}">
   <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1017,7 +1027,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -1026,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="17" x14ac:dyDescent="0.2">
@@ -1040,13 +1050,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="51" x14ac:dyDescent="0.2">
@@ -1054,13 +1064,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="51" x14ac:dyDescent="0.2">
@@ -1068,13 +1078,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="68" x14ac:dyDescent="0.2">
@@ -1082,27 +1092,27 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="153" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="102" x14ac:dyDescent="0.2">
@@ -1110,10 +1120,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -1124,10 +1134,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -1135,7 +1145,7 @@
     </row>
     <row r="12" spans="2:6" ht="204" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1181,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -1183,7 +1193,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -1198,7 +1208,7 @@
         <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -1207,7 +1217,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1239,13 +1249,13 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" ht="85" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>15</v>
@@ -1275,21 +1285,21 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
         <v>170</v>
       </c>
-      <c r="C5" t="s">
-        <v>171</v>
-      </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1321,34 +1331,34 @@
     </row>
     <row r="4" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="51" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="17" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1360,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557E002C-8107-7641-99A2-BF0AF967222A}">
   <dimension ref="B2:M48"/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1383,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2"/>
       <c r="I2" s="9" t="s">
@@ -1396,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M2" s="2"/>
     </row>
@@ -1414,13 +1424,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="K3" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>9</v>
@@ -1444,7 +1454,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K4" s="11">
         <v>1</v>
@@ -1470,7 +1480,7 @@
         <v>26</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>9</v>
@@ -1487,7 +1497,7 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1496,10 +1506,10 @@
         <v>32</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>9</v>
@@ -1513,7 +1523,7 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1525,7 +1535,7 @@
         <v>67</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L7" s="11">
         <v>1</v>
@@ -1539,7 +1549,7 @@
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1551,7 +1561,7 @@
         <v>66</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L8" s="11">
         <v>1</v>
@@ -1565,7 +1575,7 @@
         <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1574,10 +1584,10 @@
         <v>41</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L9" s="11">
         <v>1</v>
@@ -1591,7 +1601,7 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1600,10 +1610,10 @@
         <v>42</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L10" s="11">
         <v>1</v>
@@ -1617,7 +1627,7 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1626,10 +1636,10 @@
         <v>43</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L11" s="11">
         <v>1</v>
@@ -1640,10 +1650,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -1657,7 +1667,7 @@
         <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1671,24 +1681,24 @@
         <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -1696,13 +1706,13 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1713,10 +1723,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -1730,7 +1740,7 @@
         <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1744,7 +1754,7 @@
         <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -1758,7 +1768,7 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1772,7 +1782,7 @@
         <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1783,10 +1793,10 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" t="s">
         <v>144</v>
-      </c>
-      <c r="D22" t="s">
-        <v>145</v>
       </c>
       <c r="E22" t="s">
         <v>47</v>
@@ -1800,7 +1810,7 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1808,13 +1818,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1825,10 +1835,10 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1836,7 +1846,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
@@ -1880,47 +1890,47 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
         <v>108</v>
-      </c>
-      <c r="C3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="23" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1929,6 +1939,58 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521F547E-85A9-A24C-A81A-9F5E5F4D7F47}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D497E10B-50B3-574F-8EC1-2744148AE1B9}">
   <dimension ref="B2:F19"/>
   <sheetViews>
@@ -1951,72 +2013,72 @@
         <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
         <v>114</v>
       </c>
-      <c r="C3" t="s">
-        <v>115</v>
-      </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
         <v>118</v>
       </c>
-      <c r="C5" t="s">
-        <v>119</v>
-      </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
         <v>120</v>
-      </c>
-      <c r="C6" t="s">
-        <v>121</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -2030,13 +2092,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
         <v>122</v>
       </c>
-      <c r="C7" t="s">
-        <v>123</v>
-      </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -2047,44 +2109,44 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
         <v>124</v>
       </c>
-      <c r="C8" t="s">
-        <v>125</v>
-      </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
         <v>126</v>
       </c>
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2098,11 +2160,11 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
         <v>129</v>
       </c>
-      <c r="C11" t="s">
-        <v>130</v>
-      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -2110,33 +2172,33 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
         <v>131</v>
       </c>
-      <c r="C12" t="s">
-        <v>132</v>
-      </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
         <v>133</v>
       </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -2144,63 +2206,63 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
         <v>135</v>
       </c>
-      <c r="C14" t="s">
-        <v>136</v>
-      </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
         <v>137</v>
       </c>
-      <c r="C15" t="s">
-        <v>138</v>
-      </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
         <v>139</v>
       </c>
-      <c r="C16" t="s">
-        <v>140</v>
-      </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
